--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Convay_Automation\AutomationTest\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIL_Laptop\Convay\convayAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login-Credential" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>UserThree</t>
   </si>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>kakon@gmail.com</t>
-  </si>
-  <si>
     <t>Pk@110599</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>https://meet2.synesisit.info/m/j/647712840966/kakonpaulavi</t>
   </si>
   <si>
-    <t>loxowik819@daxiake.com</t>
-  </si>
-  <si>
     <t>test8877@gmail.com</t>
   </si>
   <si>
@@ -235,6 +229,9 @@
   </si>
   <si>
     <t>Abcd12345+</t>
+  </si>
+  <si>
+    <t>loxowik821@daxiake.com</t>
   </si>
 </sst>
 </file>
@@ -696,7 +693,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -722,10 +719,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="3">
         <v>1215</v>
@@ -754,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -785,19 +782,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +810,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -825,7 +822,77 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -833,85 +900,15 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +937,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
@@ -975,15 +972,15 @@
         <v>647712840966</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -991,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1041,8 +1038,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,12 +1054,15 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1087,7 +1087,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -1202,7 +1202,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,7 +1427,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1435,18 +1435,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>UserThree</t>
   </si>
@@ -231,7 +231,16 @@
     <t>Abcd12345+</t>
   </si>
   <si>
-    <t>loxowik821@daxiake.com</t>
+    <t>nanel@O3998</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>loxowik823@daxiake.com</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1048,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1054,7 +1063,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1152,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
@@ -1150,6 +1170,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868"/>
   </bookViews>
   <sheets>
     <sheet name="Login-Credential" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>UserThree</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>loxowik823@daxiake.com</t>
+  </si>
+  <si>
+    <t>mosharof@synesisit.info</t>
+  </si>
+  <si>
+    <t>Sujan96@cse</t>
+  </si>
+  <si>
+    <t>Super admin</t>
   </si>
 </sst>
 </file>
@@ -602,8 +611,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,6 +675,17 @@
       </c>
       <c r="C5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -683,9 +703,11 @@
     <hyperlink ref="B1" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4" display="Pk125058@"/>
     <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1047,7 +1069,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Login-Credential" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="JoinFromLanding" sheetId="18" r:id="rId18"/>
     <sheet name="InstantMeeting" sheetId="19" r:id="rId19"/>
     <sheet name="Join_InstantMeeting" sheetId="20" r:id="rId20"/>
+    <sheet name="CM_ManagePlansDraft" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>UserThree</t>
   </si>
@@ -250,6 +251,12 @@
   </si>
   <si>
     <t>Super admin</t>
+  </si>
+  <si>
+    <t>Draft Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plan</t>
   </si>
 </sst>
 </file>
@@ -611,8 +618,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,6 +1143,29 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Login-Credential" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="JoinFromLanding" sheetId="18" r:id="rId18"/>
     <sheet name="InstantMeeting" sheetId="19" r:id="rId19"/>
     <sheet name="Join_InstantMeeting" sheetId="20" r:id="rId20"/>
-    <sheet name="CM_ManagePlansDraft" sheetId="21" r:id="rId21"/>
+    <sheet name="CM_ManageCreateNewPlan" sheetId="21" r:id="rId21"/>
+    <sheet name="CM_ManageDraftPlan" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -256,7 +257,7 @@
     <t>Draft Plan</t>
   </si>
   <si>
-    <t xml:space="preserve"> Plan</t>
+    <t>Create New Plan</t>
   </si>
 </sst>
 </file>
@@ -1145,20 +1146,40 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1254,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Login-Credential" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="Join_InstantMeeting" sheetId="20" r:id="rId20"/>
     <sheet name="CM_ManageCreateNewPlan" sheetId="21" r:id="rId21"/>
     <sheet name="CM_ManageDraftPlan" sheetId="22" r:id="rId22"/>
+    <sheet name="CM_ManageSearchPlan" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>UserThree</t>
   </si>
@@ -258,6 +259,12 @@
   </si>
   <si>
     <t>Create New Plan</t>
+  </si>
+  <si>
+    <t>Plan A</t>
+  </si>
+  <si>
+    <t>Update Plan A</t>
   </si>
 </sst>
 </file>
@@ -1148,9 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1171,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1180,6 +1185,35 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1472,9 +1472,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="16" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="868" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Login-Credential" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="CM_ManageCreateNewPlan" sheetId="21" r:id="rId21"/>
     <sheet name="CM_ManageDraftPlan" sheetId="22" r:id="rId22"/>
     <sheet name="CM_ManageSearchPlan" sheetId="24" r:id="rId23"/>
+    <sheet name="CM_OrganizationEdit" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>UserThree</t>
   </si>
@@ -265,6 +266,9 @@
   </si>
   <si>
     <t>Update Plan A</t>
+  </si>
+  <si>
+    <t>Dsc</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1214,6 +1218,27 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
   <si>
     <t>UserThree</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>Dsc</t>
+  </si>
+  <si>
+    <t>DCSC</t>
+  </si>
+  <si>
+    <t>Draft_Org</t>
+  </si>
+  <si>
+    <t>canis16326@ymail.com</t>
+  </si>
+  <si>
+    <t>SDC</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1101,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1227,13 +1239,15 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -1241,7 +1255,30 @@
         <v>73</v>
       </c>
     </row>
-  </sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestData/TestDataFile.xlsx
+++ b/TestData/TestDataFile.xlsx
@@ -35,7 +35,7 @@
     <sheet name="CM_ManageCreateNewPlan" sheetId="21" r:id="rId21"/>
     <sheet name="CM_ManageDraftPlan" sheetId="22" r:id="rId22"/>
     <sheet name="CM_ManageSearchPlan" sheetId="24" r:id="rId23"/>
-    <sheet name="CM_OrganizationEdit" sheetId="25" r:id="rId24"/>
+    <sheet name="CM_Organization" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>UserThree</t>
   </si>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>SDC</t>
+  </si>
+  <si>
+    <t>Create_Org</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Bek</t>
+  </si>
+  <si>
+    <t>canis16326@mail.com</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,9 +1287,35 @@
         <v>76</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
